--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.1686942107306</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N2">
-        <v>15.1686942107306</v>
+        <v>46.980431</v>
       </c>
       <c r="O2">
-        <v>0.753243867366462</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P2">
-        <v>0.753243867366462</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q2">
-        <v>453.8779055709917</v>
+        <v>490.0158134209889</v>
       </c>
       <c r="R2">
-        <v>453.8779055709917</v>
+        <v>4410.1423207889</v>
       </c>
       <c r="S2">
-        <v>0.01790228801697117</v>
+        <v>0.01490010447086456</v>
       </c>
       <c r="T2">
-        <v>0.01790228801697117</v>
+        <v>0.01490010447086455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.945362273403315</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N3">
-        <v>0.945362273403315</v>
+        <v>2.975427</v>
       </c>
       <c r="O3">
-        <v>0.04694460347001523</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P3">
-        <v>0.04694460347001523</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q3">
-        <v>28.28714474015765</v>
+        <v>31.0343317557</v>
       </c>
       <c r="R3">
-        <v>28.28714474015765</v>
+        <v>279.3089858013</v>
       </c>
       <c r="S3">
-        <v>0.001115728714926058</v>
+        <v>0.0009436731890652751</v>
       </c>
       <c r="T3">
-        <v>0.001115728714926058</v>
+        <v>0.000943673189065275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.02376987980892</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N4">
-        <v>4.02376987980892</v>
+        <v>0.264995</v>
       </c>
       <c r="O4">
-        <v>0.1998115291635227</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P4">
-        <v>0.1998115291635227</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q4">
-        <v>120.3993053176164</v>
+        <v>2.763953793388888</v>
       </c>
       <c r="R4">
-        <v>120.3993053176164</v>
+        <v>24.8755841405</v>
       </c>
       <c r="S4">
-        <v>0.004748904968457612</v>
+        <v>8.404463518558934E-05</v>
       </c>
       <c r="T4">
-        <v>0.004748904968457612</v>
+        <v>8.404463518558934E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>168.327517975674</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>168.327517975674</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.1337017862189803</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.1337017862189803</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.1686942107306</v>
+        <v>0.008727</v>
       </c>
       <c r="N5">
-        <v>15.1686942107306</v>
+        <v>0.026181</v>
       </c>
       <c r="O5">
-        <v>0.753243867366462</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P5">
-        <v>0.753243867366462</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q5">
-        <v>2553.308647424257</v>
+        <v>0.2730733571</v>
       </c>
       <c r="R5">
-        <v>2553.308647424257</v>
+        <v>2.4576602139</v>
       </c>
       <c r="S5">
-        <v>0.1007100505253886</v>
+        <v>8.303449475627523E-06</v>
       </c>
       <c r="T5">
-        <v>0.1007100505253886</v>
+        <v>8.303449475627519E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>168.327517975674</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>168.327517975674</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.1337017862189803</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.1337017862189803</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.945362273403315</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N6">
-        <v>0.945362273403315</v>
+        <v>13.658273</v>
       </c>
       <c r="O6">
-        <v>0.04694460347001523</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P6">
-        <v>0.04694460347001523</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q6">
-        <v>159.1304850698205</v>
+        <v>142.4586708031889</v>
       </c>
       <c r="R6">
-        <v>159.1304850698205</v>
+        <v>1282.1280372287</v>
       </c>
       <c r="S6">
-        <v>0.006276577337282777</v>
+        <v>0.004331797096361008</v>
       </c>
       <c r="T6">
-        <v>0.006276577337282777</v>
+        <v>0.004331797096361007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.02376987980892</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N7">
-        <v>4.02376987980892</v>
+        <v>46.980431</v>
       </c>
       <c r="O7">
-        <v>0.1998115291635227</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P7">
-        <v>0.1998115291635227</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q7">
-        <v>677.3111967735115</v>
+        <v>2665.861476039773</v>
       </c>
       <c r="R7">
-        <v>677.3111967735115</v>
+        <v>23992.75328435796</v>
       </c>
       <c r="S7">
-        <v>0.02671515835630886</v>
+        <v>0.08106190333029038</v>
       </c>
       <c r="T7">
-        <v>0.02671515835630886</v>
+        <v>0.08106190333029036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>591.1917750767039</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>591.1917750767039</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.1686942107306</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N8">
-        <v>15.1686942107306</v>
+        <v>2.975427</v>
       </c>
       <c r="O8">
-        <v>0.753243867366462</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P8">
-        <v>0.753243867366462</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q8">
-        <v>8967.607256037545</v>
+        <v>168.837876648441</v>
       </c>
       <c r="R8">
-        <v>8967.607256037545</v>
+        <v>1519.540889835969</v>
       </c>
       <c r="S8">
-        <v>0.3537089731625068</v>
+        <v>0.005133920032371263</v>
       </c>
       <c r="T8">
-        <v>0.3537089731625068</v>
+        <v>0.005133920032371262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>591.1917750767039</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>591.1917750767039</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.945362273403315</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N9">
-        <v>0.945362273403315</v>
+        <v>0.264995</v>
       </c>
       <c r="O9">
-        <v>0.04694460347001523</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P9">
-        <v>0.04694460347001523</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q9">
-        <v>558.8904005038542</v>
+        <v>15.036898274585</v>
       </c>
       <c r="R9">
-        <v>558.8904005038542</v>
+        <v>135.332084471265</v>
       </c>
       <c r="S9">
-        <v>0.02204429164083953</v>
+        <v>0.0004572329077400396</v>
       </c>
       <c r="T9">
-        <v>0.02204429164083953</v>
+        <v>0.0004572329077400395</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>591.1917750767039</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>591.1917750767039</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.4695809531103998</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.02376987980892</v>
+        <v>0.008727</v>
       </c>
       <c r="N10">
-        <v>4.02376987980892</v>
+        <v>0.026181</v>
       </c>
       <c r="O10">
-        <v>0.1998115291635227</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P10">
-        <v>0.1998115291635227</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q10">
-        <v>2378.819657744411</v>
+        <v>1.485616837023</v>
       </c>
       <c r="R10">
-        <v>2378.819657744411</v>
+        <v>13.370551533207</v>
       </c>
       <c r="S10">
-        <v>0.09382768830705342</v>
+        <v>4.517373821220015E-05</v>
       </c>
       <c r="T10">
-        <v>0.09382768830705342</v>
+        <v>4.517373821220013E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>436.236476144538</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>436.236476144538</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.3465006599980123</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.3465006599980123</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.1686942107306</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N11">
-        <v>15.1686942107306</v>
+        <v>13.658273</v>
       </c>
       <c r="O11">
-        <v>0.753243867366462</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P11">
-        <v>0.753243867366462</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q11">
-        <v>6617.137710203171</v>
+        <v>775.0261767486591</v>
       </c>
       <c r="R11">
-        <v>6617.137710203171</v>
+        <v>6975.235590737931</v>
       </c>
       <c r="S11">
-        <v>0.2609994971819343</v>
+        <v>0.02356652721182391</v>
       </c>
       <c r="T11">
-        <v>0.2609994971819343</v>
+        <v>0.0235665272118239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>436.236476144538</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>436.236476144538</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.945362273403315</v>
+        <v>15.66014366666667</v>
       </c>
       <c r="N12">
-        <v>0.945362273403315</v>
+        <v>46.980431</v>
       </c>
       <c r="O12">
-        <v>0.04694460347001523</v>
+        <v>0.735156956526318</v>
       </c>
       <c r="P12">
-        <v>0.04694460347001523</v>
+        <v>0.7351569565263179</v>
       </c>
       <c r="Q12">
-        <v>412.4015068294515</v>
+        <v>9458.358943992176</v>
       </c>
       <c r="R12">
-        <v>412.4015068294515</v>
+        <v>85125.23049592959</v>
       </c>
       <c r="S12">
-        <v>0.01626633608570525</v>
+        <v>0.2876040579272928</v>
       </c>
       <c r="T12">
-        <v>0.01626633608570525</v>
+        <v>0.2876040579272928</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>436.236476144538</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>436.236476144538</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.3465006599980123</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.02376987980892</v>
+        <v>0.9918089999999999</v>
       </c>
       <c r="N13">
-        <v>4.02376987980892</v>
+        <v>2.975427</v>
       </c>
       <c r="O13">
-        <v>0.1998115291635227</v>
+        <v>0.04655993593771484</v>
       </c>
       <c r="P13">
-        <v>0.1998115291635227</v>
+        <v>0.04655993593771483</v>
       </c>
       <c r="Q13">
-        <v>1755.315193184374</v>
+        <v>599.0293400596049</v>
       </c>
       <c r="R13">
-        <v>1755.315193184374</v>
+        <v>5391.264060536445</v>
       </c>
       <c r="S13">
-        <v>0.06923482673037269</v>
+        <v>0.01821492185259924</v>
       </c>
       <c r="T13">
-        <v>0.06923482673037269</v>
+        <v>0.01821492185259924</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.299546240622</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>33.299546240622</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.02644967897225281</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.02644967897225281</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>15.1686942107306</v>
+        <v>0.08833166666666666</v>
       </c>
       <c r="N14">
-        <v>15.1686942107306</v>
+        <v>0.264995</v>
       </c>
       <c r="O14">
-        <v>0.753243867366462</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="P14">
-        <v>0.753243867366462</v>
+        <v>0.004146682215297079</v>
       </c>
       <c r="Q14">
-        <v>505.1106342800788</v>
+        <v>53.3502519030361</v>
       </c>
       <c r="R14">
-        <v>505.1106342800788</v>
+        <v>480.1522671273249</v>
       </c>
       <c r="S14">
-        <v>0.01992305847966109</v>
+        <v>0.001622242191231556</v>
       </c>
       <c r="T14">
-        <v>0.01992305847966109</v>
+        <v>0.001622242191231556</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.299546240622</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>33.299546240622</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.02644967897225281</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.02644967897225281</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.945362273403315</v>
+        <v>0.008727</v>
       </c>
       <c r="N15">
-        <v>0.945362273403315</v>
+        <v>0.026181</v>
       </c>
       <c r="O15">
-        <v>0.04694460347001523</v>
+        <v>0.0004096842849061034</v>
       </c>
       <c r="P15">
-        <v>0.04694460347001523</v>
+        <v>0.0004096842849061033</v>
       </c>
       <c r="Q15">
-        <v>31.48013473733323</v>
+        <v>5.270903017315</v>
       </c>
       <c r="R15">
-        <v>31.48013473733323</v>
+        <v>47.438127155835</v>
       </c>
       <c r="S15">
-        <v>0.001241669691261608</v>
+        <v>0.0001602744308708971</v>
       </c>
       <c r="T15">
-        <v>0.001241669691261608</v>
+        <v>0.0001602744308708971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.299546240622</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>33.299546240622</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.02644967897225281</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.02644967897225281</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.02376987980892</v>
+        <v>4.552757666666667</v>
       </c>
       <c r="N16">
-        <v>4.02376987980892</v>
+        <v>13.658273</v>
       </c>
       <c r="O16">
-        <v>0.1998115291635227</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="P16">
-        <v>0.1998115291635227</v>
+        <v>0.2137267410357641</v>
       </c>
       <c r="Q16">
-        <v>133.9897111743192</v>
+        <v>2749.758693977006</v>
       </c>
       <c r="R16">
-        <v>133.9897111743192</v>
+        <v>24747.82824579306</v>
       </c>
       <c r="S16">
-        <v>0.005284950801330105</v>
+        <v>0.08361299918850849</v>
       </c>
       <c r="T16">
-        <v>0.005284950801330105</v>
+        <v>0.08361299918850849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>694.886846</v>
+      </c>
+      <c r="H17">
+        <v>2084.660538</v>
+      </c>
+      <c r="I17">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="J17">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>15.66014366666667</v>
+      </c>
+      <c r="N17">
+        <v>46.980431</v>
+      </c>
+      <c r="O17">
+        <v>0.735156956526318</v>
+      </c>
+      <c r="P17">
+        <v>0.7351569565263179</v>
+      </c>
+      <c r="Q17">
+        <v>10882.02784043688</v>
+      </c>
+      <c r="R17">
+        <v>97938.25056393188</v>
+      </c>
+      <c r="S17">
+        <v>0.3308941206312934</v>
+      </c>
+      <c r="T17">
+        <v>0.3308941206312934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>694.886846</v>
+      </c>
+      <c r="H18">
+        <v>2084.660538</v>
+      </c>
+      <c r="I18">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="J18">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N18">
+        <v>2.975427</v>
+      </c>
+      <c r="O18">
+        <v>0.04655993593771484</v>
+      </c>
+      <c r="P18">
+        <v>0.04655993593771483</v>
+      </c>
+      <c r="Q18">
+        <v>689.195027844414</v>
+      </c>
+      <c r="R18">
+        <v>6202.755250599726</v>
+      </c>
+      <c r="S18">
+        <v>0.02095662555048947</v>
+      </c>
+      <c r="T18">
+        <v>0.02095662555048946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>694.886846</v>
+      </c>
+      <c r="H19">
+        <v>2084.660538</v>
+      </c>
+      <c r="I19">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="J19">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.08833166666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.264995</v>
+      </c>
+      <c r="O19">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="P19">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="Q19">
+        <v>61.38051325192333</v>
+      </c>
+      <c r="R19">
+        <v>552.4246192673099</v>
+      </c>
+      <c r="S19">
+        <v>0.001866421521264664</v>
+      </c>
+      <c r="T19">
+        <v>0.001866421521264664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>694.886846</v>
+      </c>
+      <c r="H20">
+        <v>2084.660538</v>
+      </c>
+      <c r="I20">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="J20">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.008727</v>
+      </c>
+      <c r="N20">
+        <v>0.026181</v>
+      </c>
+      <c r="O20">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P20">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q20">
+        <v>6.064277505042</v>
+      </c>
+      <c r="R20">
+        <v>54.578497545378</v>
+      </c>
+      <c r="S20">
+        <v>0.0001843988824250653</v>
+      </c>
+      <c r="T20">
+        <v>0.0001843988824250653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>694.886846</v>
+      </c>
+      <c r="H21">
+        <v>2084.660538</v>
+      </c>
+      <c r="I21">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="J21">
+        <v>0.4500999653118942</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N21">
+        <v>13.658273</v>
+      </c>
+      <c r="O21">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P21">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q21">
+        <v>3163.65141559232</v>
+      </c>
+      <c r="R21">
+        <v>28472.86274033088</v>
+      </c>
+      <c r="S21">
+        <v>0.09619839872642161</v>
+      </c>
+      <c r="T21">
+        <v>0.09619839872642161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H22">
+        <v>130.391377</v>
+      </c>
+      <c r="I22">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J22">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.66014366666667</v>
+      </c>
+      <c r="N22">
+        <v>46.980431</v>
+      </c>
+      <c r="O22">
+        <v>0.735156956526318</v>
+      </c>
+      <c r="P22">
+        <v>0.7351569565263179</v>
+      </c>
+      <c r="Q22">
+        <v>680.6492322381654</v>
+      </c>
+      <c r="R22">
+        <v>6125.843090143488</v>
+      </c>
+      <c r="S22">
+        <v>0.02069677016657686</v>
+      </c>
+      <c r="T22">
+        <v>0.02069677016657685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H23">
+        <v>130.391377</v>
+      </c>
+      <c r="I23">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J23">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9918089999999999</v>
+      </c>
+      <c r="N23">
+        <v>2.975427</v>
+      </c>
+      <c r="O23">
+        <v>0.04655993593771484</v>
+      </c>
+      <c r="P23">
+        <v>0.04655993593771483</v>
+      </c>
+      <c r="Q23">
+        <v>43.107780410331</v>
+      </c>
+      <c r="R23">
+        <v>387.970023692979</v>
+      </c>
+      <c r="S23">
+        <v>0.001310795313189598</v>
+      </c>
+      <c r="T23">
+        <v>0.001310795313189597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H24">
+        <v>130.391377</v>
+      </c>
+      <c r="I24">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J24">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.08833166666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.264995</v>
+      </c>
+      <c r="O24">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="P24">
+        <v>0.004146682215297079</v>
+      </c>
+      <c r="Q24">
+        <v>3.839229216457222</v>
+      </c>
+      <c r="R24">
+        <v>34.553062948115</v>
+      </c>
+      <c r="S24">
+        <v>0.0001167409598752305</v>
+      </c>
+      <c r="T24">
+        <v>0.0001167409598752304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H25">
+        <v>130.391377</v>
+      </c>
+      <c r="I25">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J25">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.008727</v>
+      </c>
+      <c r="N25">
+        <v>0.026181</v>
+      </c>
+      <c r="O25">
+        <v>0.0004096842849061034</v>
+      </c>
+      <c r="P25">
+        <v>0.0004096842849061033</v>
+      </c>
+      <c r="Q25">
+        <v>0.3793085156930001</v>
+      </c>
+      <c r="R25">
+        <v>3.413776641237</v>
+      </c>
+      <c r="S25">
+        <v>1.153378392231329E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.153378392231328E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.46379233333334</v>
+      </c>
+      <c r="H26">
+        <v>130.391377</v>
+      </c>
+      <c r="I26">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="J26">
+        <v>0.02815285903621308</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.552757666666667</v>
+      </c>
+      <c r="N26">
+        <v>13.658273</v>
+      </c>
+      <c r="O26">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="P26">
+        <v>0.2137267410357641</v>
+      </c>
+      <c r="Q26">
+        <v>197.8801137679913</v>
+      </c>
+      <c r="R26">
+        <v>1780.921023911921</v>
+      </c>
+      <c r="S26">
+        <v>0.006017018812649084</v>
+      </c>
+      <c r="T26">
+        <v>0.006017018812649083</v>
       </c>
     </row>
   </sheetData>
